--- a/Predição Vacinação Covid - RJ.xlsx
+++ b/Predição Vacinação Covid - RJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imotta\Documents\Ivan Profile\TCC - PUC Minas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0621B24-ABC4-4F62-A529-C596B4EFB7E6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FB6586-1CA1-4FEC-A5E4-E46989A0542F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="875" firstSheet="6" activeTab="8" xr2:uid="{A3624158-3D98-4463-B483-8331A251F52D}"/>
   </bookViews>
